--- a/MyStoreProject_HybridFramework/src/test/resources/TestData/TestData.xlsx
+++ b/MyStoreProject_HybridFramework/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899E84E-A722-4761-B1C2-10057944B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740829C-2515-4431-9D36-EA6DCF83AB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,15 +306,6 @@
     <t>91437</t>
   </si>
   <si>
-    <t>mystoredatapro1@gmail.com</t>
-  </si>
-  <si>
-    <t>mystoredatapro2@gmail.com</t>
-  </si>
-  <si>
-    <t>mystoredatapro3@gmail.com</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -340,6 +331,15 @@
   </si>
   <si>
     <t>Harry123</t>
+  </si>
+  <si>
+    <t>mystoredata1@gmail.com</t>
+  </si>
+  <si>
+    <t>mystoredata2@gmail.com</t>
+  </si>
+  <si>
+    <t>mystoredata3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1244,9 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1316,19 +1314,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>71</v>
@@ -1363,19 +1361,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>85</v>
@@ -1410,19 +1408,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>86</v>
